--- a/data/trans_camb/PCS12_SP_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/PCS12_SP_R2-Edad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-5.222824609912324</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-5.131073944618017</v>
+        <v>-5.131073944618023</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.770456274472385</v>
+        <v>-3.453770525017843</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-9.293374782226712</v>
+        <v>-9.672518898923485</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-8.500853173014173</v>
+        <v>-8.770467121822952</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.838746492132934</v>
+        <v>-5.821025921663789</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-12.15939726569329</v>
+        <v>-12.27128188517253</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-15.59923669425386</v>
+        <v>-14.82081494191152</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-3.20037649552078</v>
+        <v>-2.90665398230988</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-9.495900789438313</v>
+        <v>-9.124893174016306</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-10.21985898198819</v>
+        <v>-10.05170038723059</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.224213807817847</v>
+        <v>7.56168589497454</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.134275844004567</v>
+        <v>1.410028458132399</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.78205238199923</v>
+        <v>6.304894551520341</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.933867179625544</v>
+        <v>5.975138967727552</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-1.13146018531834</v>
+        <v>-0.2054219608690206</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-1.18092738254397</v>
+        <v>-0.2094400549403393</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>5.44483687043126</v>
+        <v>5.43212356035463</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-1.450424831357731</v>
+        <v>-1.254474158568261</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4202573299799834</v>
+        <v>-0.1141447332770712</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.2082651407705344</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.2046064949896587</v>
+        <v>-0.204606494989659</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1477663527517613</v>
+        <v>-0.1392592803209714</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3747544686358487</v>
+        <v>-0.3852355433701325</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3730260160171889</v>
+        <v>-0.3674157018759424</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.186993112848362</v>
+        <v>-0.1918841098625676</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3891700775330493</v>
+        <v>-0.3956455189328349</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5195704749930119</v>
+        <v>-0.4962561273941116</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1179373498702636</v>
+        <v>-0.1099400434361861</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3506260984819104</v>
+        <v>-0.3361671995191113</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.3847752998460764</v>
+        <v>-0.3888566596587706</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3657723503514228</v>
+        <v>0.378985153858821</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.05964393952822206</v>
+        <v>0.07117901942303505</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2931601068420867</v>
+        <v>0.3147658441200833</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2297134434787362</v>
+        <v>0.2415223897590173</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.04496631624944807</v>
+        <v>-0.007871748298731589</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.0448830657740617</v>
+        <v>-0.01735862924755445</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2328460708726016</v>
+        <v>0.2299909304741468</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.06095198344127116</v>
+        <v>-0.05103498317351039</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.021667300640086</v>
+        <v>-0.009756816621848474</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-16.18265349864688</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-10.38256889583583</v>
+        <v>-10.38256889583584</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.3103705726225703</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.6400793553357413</v>
+        <v>-0.7145194118453575</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.929330654068822</v>
+        <v>-6.641861073603858</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.6422840933683436</v>
+        <v>0.06171852423200776</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-9.775062956946204</v>
+        <v>-9.56018326605014</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-21.48996026250604</v>
+        <v>-21.35087811507934</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-16.19049661977786</v>
+        <v>-15.77249984160819</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-3.407492619909652</v>
+        <v>-3.194102633372619</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-12.0963890876805</v>
+        <v>-12.35441352002384</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-5.653271426556351</v>
+        <v>-5.596533773833644</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.697440068156562</v>
+        <v>8.722301301866185</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.625657406958557</v>
+        <v>2.735562629171338</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12.69954400582348</v>
+        <v>12.45206937526135</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.338327015630112</v>
+        <v>1.372003781212938</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-11.2242895896844</v>
+        <v>-10.79050388302317</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-5.090639833747583</v>
+        <v>-4.23179767464657</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.945281498134387</v>
+        <v>3.957097135844136</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-4.897580437435466</v>
+        <v>-5.19519346256248</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.090230133060305</v>
+        <v>2.990791332314879</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.4104171837098832</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.2633180452302878</v>
+        <v>-0.263318045230288</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.01001627711712902</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.02381399551147192</v>
+        <v>-0.02838849345505233</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2694446895736967</v>
+        <v>-0.2510272042402424</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.0187913462734183</v>
+        <v>0.009928159851727559</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2343406177098293</v>
+        <v>-0.2304023410220166</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5115986467108733</v>
+        <v>-0.5146986344452475</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3928444652739528</v>
+        <v>-0.381754086370337</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1058086307070526</v>
+        <v>-0.09704881216095719</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3727045835232383</v>
+        <v>-0.3747657434655358</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1716754614084291</v>
+        <v>-0.1712114681463638</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3988806031315528</v>
+        <v>0.4034813558917841</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1177043592225841</v>
+        <v>0.1304518259701545</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.5805277021685016</v>
+        <v>0.5816170873326406</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.03492601018942499</v>
+        <v>0.03754479272291097</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.3013812336975458</v>
+        <v>-0.291381678578789</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.1360892319241888</v>
+        <v>-0.1150824894398176</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1329484023520074</v>
+        <v>0.1348692315078609</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.1722061307245951</v>
+        <v>-0.1753057133768895</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.1059639496104882</v>
+        <v>0.101999048912915</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-10.0292777289287</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-1.033724655879764</v>
+        <v>-1.03372465587977</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-4.144790339114085</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.814331571044788</v>
+        <v>-3.788929573354084</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-14.58946140070696</v>
+        <v>-15.08014589465684</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-6.137811008682553</v>
+        <v>-6.604698701825928</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-9.705258707292586</v>
+        <v>-9.305386343353391</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-19.32070292262385</v>
+        <v>-19.54117598164688</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-16.68238880863709</v>
+        <v>-16.34109546575797</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-5.614618415808698</v>
+        <v>-5.253684796372814</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-16.00441696616561</v>
+        <v>-16.25259178933296</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-10.44647991149845</v>
+        <v>-10.0389975884497</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.820019423389252</v>
+        <v>6.853198506137346</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-5.385036152123101</v>
+        <v>-5.117147772482777</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.655032249156671</v>
+        <v>4.864451593126693</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.363274036984976</v>
+        <v>1.53147472817319</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-8.783859862179016</v>
+        <v>-8.908255057749482</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-6.572652081461877</v>
+        <v>-6.490207919977395</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.242489454955021</v>
+        <v>2.603155661750409</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-8.564026921752806</v>
+        <v>-8.581769409786661</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-2.939404261231632</v>
+        <v>-2.827654339250275</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.2942641284152005</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.03033000910986384</v>
+        <v>-0.030330009109864</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.08554359663929598</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1054954234956616</v>
+        <v>-0.09996821702378902</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.405332176577959</v>
+        <v>-0.4092873096567881</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1680770000169553</v>
+        <v>-0.1764501590923155</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1925631310919325</v>
+        <v>-0.1869432429982157</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3809642727116698</v>
+        <v>-0.3820285107359714</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3250022962433635</v>
+        <v>-0.3221610245740913</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1263224084766892</v>
+        <v>-0.1197452065889778</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3696997333796967</v>
+        <v>-0.3770681477254036</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2377627593455848</v>
+        <v>-0.2306886253360632</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2152981445352496</v>
+        <v>0.2196336406708954</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.170889666912865</v>
+        <v>-0.1611095800842695</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.1487658275571324</v>
+        <v>0.1560501468096245</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.02901496703382278</v>
+        <v>0.0316470537458159</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.19141882448793</v>
+        <v>-0.1947339398459565</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.1434760441737798</v>
+        <v>-0.1425612145274582</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05653432690514115</v>
+        <v>0.06707780697907563</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.2165528799574363</v>
+        <v>-0.220818115192506</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.07334207400721797</v>
+        <v>-0.07188329506321482</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-4.266948792562358</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4.245225318730461</v>
+        <v>4.245225318730473</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-9.897129718177656</v>
@@ -1306,7 +1306,7 @@
         <v>-10.33381642997588</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-1.720186318128952</v>
+        <v>-1.720186318128941</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-7.940571147511578</v>
+        <v>-7.410691048888205</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-10.79549803188784</v>
+        <v>-10.47466119183757</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.560637299871811</v>
+        <v>-2.068828056998172</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-15.67143860457229</v>
+        <v>-16.39720724507407</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-22.5550679205514</v>
+        <v>-22.4351013335051</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-12.48923823455717</v>
+        <v>-12.73084211026717</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-10.28178523781613</v>
+        <v>-10.05292196087544</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-14.06797431315369</v>
+        <v>-14.67643967941299</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-5.565011435188919</v>
+        <v>-5.850863367780136</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.69367129417079</v>
+        <v>4.42927024239528</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.105295334473254</v>
+        <v>1.681974884178245</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10.48710226007444</v>
+        <v>9.539695652659278</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-3.87172098005536</v>
+        <v>-4.157829493311648</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-10.87228713478916</v>
+        <v>-10.7021300470795</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-2.32149033667074</v>
+        <v>-2.652497029366154</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-1.277985247827201</v>
+        <v>-1.226131423248258</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-6.083824702574754</v>
+        <v>-6.094244768891521</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.635953498898036</v>
+        <v>2.182123564579577</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.1002564972069117</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.09974608109942328</v>
+        <v>0.09974608109942354</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.1642670328419825</v>
@@ -1411,7 +1411,7 @@
         <v>-0.201143569323756</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.03348273295494906</v>
+        <v>-0.03348273295494884</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1701908126696981</v>
+        <v>-0.1637080995840665</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2316464824529494</v>
+        <v>-0.2261115799340283</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.03359758281680003</v>
+        <v>-0.0420930910814408</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2471097885433599</v>
+        <v>-0.2605801901816432</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3545394896557625</v>
+        <v>-0.3530772257862675</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2005628352290404</v>
+        <v>-0.2003301007999451</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1931820644194045</v>
+        <v>-0.1898660114336352</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2638225373896972</v>
+        <v>-0.2695945804656903</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1046264471929901</v>
+        <v>-0.107264532319259</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1186035026562233</v>
+        <v>0.1130492888641394</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.031772827740407</v>
+        <v>0.04332937956615165</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.2679103554163956</v>
+        <v>0.2487102986609301</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.06750922238818224</v>
+        <v>-0.07263067292697468</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.1874574861335285</v>
+        <v>-0.1845498036536936</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.04631393088168406</v>
+        <v>-0.04565831848840269</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.02709048510447995</v>
+        <v>-0.02516268181057878</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.1255633611351757</v>
+        <v>-0.1237554756754897</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.05538487551799773</v>
+        <v>0.04590404419241102</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>-7.639256565128171</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-6.533274717558168</v>
+        <v>-6.53327471755818</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-3.269960429810403</v>
@@ -1520,7 +1520,7 @@
         <v>-8.718582000205465</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-7.846362112421246</v>
+        <v>-7.846362112421234</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-14.00537856097626</v>
+        <v>-14.12402747979701</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-16.62520182744343</v>
+        <v>-16.32882868013223</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-15.3370639217093</v>
+        <v>-15.34582403092413</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-5.97589112513633</v>
+        <v>-6.928203757389075</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-13.60049766161456</v>
+        <v>-14.51881571483803</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-11.51406938852992</v>
+        <v>-12.59677454451676</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-7.933567761987204</v>
+        <v>-8.651467250319975</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-13.41087123301535</v>
+        <v>-13.2262532563683</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-12.07168797462598</v>
+        <v>-11.86002476211799</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.4665228095506797</v>
+        <v>-0.1880225697989758</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-2.403812397178074</v>
+        <v>-2.63823800148687</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-3.114680911571378</v>
+        <v>-3.120054482946186</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7.209718443023291</v>
+        <v>6.511181149791419</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-0.5670705920349913</v>
+        <v>-1.353810925064898</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-0.4030238940820857</v>
+        <v>-1.152509282769143</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>1.264025124036408</v>
+        <v>1.159896516284823</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-4.033772923129848</v>
+        <v>-4.265828213895273</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-3.592399799736516</v>
+        <v>-3.658983101543037</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>-0.1084700783330569</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.09276620235794175</v>
+        <v>-0.0927662023579419</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.04783198111936975</v>
@@ -1625,7 +1625,7 @@
         <v>-0.1275327511060079</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.1147741853374146</v>
+        <v>-0.1147741853374144</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2052508738170628</v>
+        <v>-0.2053329414928144</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2400662779752913</v>
+        <v>-0.2390843347613839</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2198701478749249</v>
+        <v>-0.2217663483947404</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.07952702584746157</v>
+        <v>-0.09443652853381383</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1862843250763146</v>
+        <v>-0.1931356669657817</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1559769617522273</v>
+        <v>-0.1687392774321831</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.1140100574400821</v>
+        <v>-0.1220178866934214</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1907624794438768</v>
+        <v>-0.1889203162164861</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.1701772734769738</v>
+        <v>-0.1664772024639821</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.006632744396352333</v>
+        <v>-0.003278073486904393</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.03960539260384416</v>
+        <v>-0.04439912110096246</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.04997785256415123</v>
+        <v>-0.05008659137055847</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1095673142611894</v>
+        <v>0.09691039849045313</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.007745453811066525</v>
+        <v>-0.01740548161672088</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.006104562058015849</v>
+        <v>-0.01726901395575799</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.0197395608443616</v>
+        <v>0.01766320494747894</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.06031377166458931</v>
+        <v>-0.06477077619088811</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.05501097166296758</v>
+        <v>-0.05503111122284973</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>-8.749156733338626</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>-14.68647267057422</v>
+        <v>-14.6864726705742</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>-6.520116661128295</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-8.05397105472972</v>
+        <v>-8.252939072577458</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-16.3384740623823</v>
+        <v>-15.11200608838764</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-21.19303596578067</v>
+        <v>-20.80598692369022</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-11.94352860394998</v>
+        <v>-12.22120949041181</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-16.11921315484373</v>
+        <v>-15.96922295106024</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-15.61141235062427</v>
+        <v>-15.9408145357673</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-8.721736654273579</v>
+        <v>-8.25863759680224</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-13.86974446905065</v>
+        <v>-14.16179283500671</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-16.87995575246455</v>
+        <v>-17.097261670489</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>5.853541486334965</v>
+        <v>5.535346886211732</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-1.943311191944765</v>
+        <v>-1.570003999322585</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-7.907711982655398</v>
+        <v>-8.179771366437137</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>-0.7766542622615017</v>
+        <v>-0.8840486922340497</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-4.899627882098384</v>
+        <v>-4.705287293260308</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-6.445489661282795</v>
+        <v>-7.159765939065195</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>0.5795512918970295</v>
+        <v>0.8935717379933803</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-4.77250352768885</v>
+        <v>-5.007695117153972</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-9.346023001017544</v>
+        <v>-9.604213796104483</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>-0.113601706079309</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.1906936179697084</v>
+        <v>-0.1906936179697081</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>-0.07450147015621511</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.1011480646885114</v>
+        <v>-0.1009034346376277</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.2087513747716103</v>
+        <v>-0.1896517931749324</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.2619822067048474</v>
+        <v>-0.259134791781184</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.1326119645547912</v>
+        <v>-0.1353500370672701</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.1818108102279084</v>
+        <v>-0.1798270667927347</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.1753726679596906</v>
+        <v>-0.1786794577056546</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.1028202185321159</v>
+        <v>-0.09846815261680643</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.1653727681891063</v>
+        <v>-0.1682671124449051</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.1995155655456251</v>
+        <v>-0.2014310089817439</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.07987738357813455</v>
+        <v>0.07539327583053095</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>-0.02979306708187978</v>
+        <v>-0.02161731990690433</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.108975640390223</v>
+        <v>-0.1142852611498553</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>-0.009558381146532017</v>
+        <v>-0.0106555176982372</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.05743793662088358</v>
+        <v>-0.05520950897945259</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.07674872519419949</v>
+        <v>-0.08566551658633949</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.006824150891415954</v>
+        <v>0.01134433277350692</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.06004546392943656</v>
+        <v>-0.0624977899934254</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.1161696589734294</v>
+        <v>-0.1187317671662724</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>-8.653882862750029</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-10.63134371420672</v>
+        <v>-10.63134371420673</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>-1.4292804452397</v>
@@ -1939,7 +1939,7 @@
         <v>-4.744494094257268</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>-4.241420897626158</v>
+        <v>-4.241420897626169</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>-2.187965118636936</v>
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-9.853743410698598</v>
+        <v>-9.34287304584559</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-14.19630318555098</v>
+        <v>-14.27508200944214</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-15.75290609839942</v>
+        <v>-15.81660112449473</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-4.434095166014653</v>
+        <v>-4.611248472174888</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-8.753911913383615</v>
+        <v>-8.332516133178698</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-6.875876040578728</v>
+        <v>-7.058077253246658</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-5.47045922071295</v>
+        <v>-5.368495102646348</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-9.839866849928633</v>
+        <v>-9.841851323331673</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-9.655814459908488</v>
+        <v>-9.502484808008987</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>3.155958022860387</v>
+        <v>3.04318063680398</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-2.542778200486908</v>
+        <v>-2.48606789358812</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-4.242213322014194</v>
+        <v>-5.456656815159103</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2.189052857082721</v>
+        <v>1.954938551661441</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-0.851064761761175</v>
+        <v>-0.818749415163466</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-0.8155298487139152</v>
+        <v>-1.122062384628451</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>0.8783460988085433</v>
+        <v>0.7588356479598007</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-3.105717134312663</v>
+        <v>-2.857642473857835</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-3.718734965952113</v>
+        <v>-3.78620000476328</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>-0.09538028960558111</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.1171752216247674</v>
+        <v>-0.1171752216247675</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>-0.01490946850604118</v>
@@ -2044,7 +2044,7 @@
         <v>-0.04949195625744665</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>-0.04424417300652062</v>
+        <v>-0.04424417300652074</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>-0.02330534365309327</v>
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.1051615550550315</v>
+        <v>-0.09980673029466788</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.1549846615967718</v>
+        <v>-0.1536281291811073</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.1696707530788995</v>
+        <v>-0.1706290322632887</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.045858061608172</v>
+        <v>-0.04740545579354544</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.09041190945230726</v>
+        <v>-0.08617857092823455</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.07105100229341435</v>
+        <v>-0.07283518172420682</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.05732226704515079</v>
+        <v>-0.05618706192475258</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.1037574392465899</v>
+        <v>-0.1029831651137281</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.1013913687876863</v>
+        <v>-0.1004663608661481</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.03671880703184515</v>
+        <v>0.03477256175774406</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.03053497380074253</v>
+        <v>-0.02815757994342822</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.04747296041555423</v>
+        <v>-0.06326781192128976</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.02323736043196623</v>
+        <v>0.02057900295007183</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.009287614230490279</v>
+        <v>-0.009138247986073825</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.008659828021117708</v>
+        <v>-0.01195509334483935</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.009415246120600207</v>
+        <v>0.008151118953874444</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.03384698614237273</v>
+        <v>-0.03042510588690853</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.04121890789058843</v>
+        <v>-0.04136654815028212</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>-3.626125643856315</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>2.903219259725232</v>
+        <v>2.903219259725237</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>-2.76485607951229</v>
@@ -2153,7 +2153,7 @@
         <v>-9.226008945811953</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>-4.115471754696898</v>
+        <v>-4.115471754696909</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>-0.6890389783901218</v>
@@ -2162,7 +2162,7 @@
         <v>-6.441628500511598</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>-0.6143329823027899</v>
+        <v>-0.6143329823027954</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-1.101309333462187</v>
+        <v>-0.9950774601628875</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-6.111079840846532</v>
+        <v>-6.180992656267703</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>0.5156777454488906</v>
+        <v>0.2650772467025525</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-5.283945373115437</v>
+        <v>-5.076720746372455</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-11.99917925782206</v>
+        <v>-11.48073873259531</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-6.252943986528237</v>
+        <v>-6.37640572705808</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-2.545947527250311</v>
+        <v>-2.367013270122131</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-8.156700488651129</v>
+        <v>-8.104084938893381</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-2.109349138940363</v>
+        <v>-2.557821128979421</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>3.777158377837825</v>
+        <v>3.834232632327314</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-1.36078694066017</v>
+        <v>-1.270768531477348</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>5.369340230965062</v>
+        <v>5.35168532390617</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>-0.4913799009206741</v>
+        <v>-0.3432611219230688</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-6.946132244020757</v>
+        <v>-6.590526803292494</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-1.843886430080177</v>
+        <v>-1.684090510634902</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>1.018527805255033</v>
+        <v>1.139232427774874</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-4.624924248497899</v>
+        <v>-4.635126949466654</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>1.194584598732348</v>
+        <v>1.113103568692199</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>-0.08517312421271032</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.06819296376127125</v>
+        <v>0.06819296376127137</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>-0.04846085002384306</v>
@@ -2258,7 +2258,7 @@
         <v>-0.1617083215125231</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.07213368571318508</v>
+        <v>-0.07213368571318528</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>-0.01380143846403421</v>
@@ -2267,7 +2267,7 @@
         <v>-0.1290257041273564</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>-0.01230507869306356</v>
+        <v>-0.01230507869306368</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.02485943358539219</v>
+        <v>-0.02216886499132938</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.1378673341610508</v>
+        <v>-0.142135339869318</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.0121280228963354</v>
+        <v>0.007031632425430158</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.090003253115554</v>
+        <v>-0.08761595007216688</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.2072603633800078</v>
+        <v>-0.1979161141320867</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.1082181146759748</v>
+        <v>-0.1101295887529057</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.05033872864344263</v>
+        <v>-0.04669631687511778</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.1629107783470911</v>
+        <v>-0.1600420589945836</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.0414983127550717</v>
+        <v>-0.04982402735510003</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.0910771880965493</v>
+        <v>0.09378980016048208</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.03303183879161643</v>
+        <v>-0.03072744671693687</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.1293519217786388</v>
+        <v>0.1309954207744286</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>-0.008781877308073192</v>
+        <v>-0.007179694527190137</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.1250198027733339</v>
+        <v>-0.117952239079592</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.03285670191205647</v>
+        <v>-0.03041844025013107</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.02053210734817386</v>
+        <v>0.02348066943038718</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.0956907917024034</v>
+        <v>-0.09527824353824858</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.02448128473204212</v>
+        <v>0.02235916541314365</v>
       </c>
     </row>
     <row r="52">
